--- a/whonet/static/whonet_xl/whonet_region_island.xlsx
+++ b/whonet/static/whonet_xl/whonet_region_island.xlsx
@@ -879,14 +879,16 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K29"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">

--- a/whonet/static/whonet_xl/whonet_region_island.xlsx
+++ b/whonet/static/whonet_xl/whonet_region_island.xlsx
@@ -266,9 +266,6 @@
     <t>Sinsuat Ave, Cotabato City, 9600 Maguindanao, Philippines</t>
   </si>
   <si>
-    <t>ARMM</t>
-  </si>
-  <si>
     <t>Maguindanao</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>Dipolog City</t>
+  </si>
+  <si>
+    <t>XII</t>
   </si>
 </sst>
 </file>
@@ -879,7 +879,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,37 +928,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="J2">
-        <v>14.409894</v>
+        <v>7.200831</v>
       </c>
       <c r="K2">
-        <v>121.03704</v>
+        <v>124.236306</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -998,13 +998,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -1013,33 +1013,33 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="J4">
-        <v>13.7664998</v>
+        <v>18.060925099999999</v>
       </c>
       <c r="K4">
-        <v>121.0662701</v>
+        <v>120.55957669999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1048,103 +1048,103 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="J5">
-        <v>13.1470067</v>
+        <v>15.954565000000001</v>
       </c>
       <c r="K5">
-        <v>123.72470439999999</v>
+        <v>120.349784</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J6">
-        <v>7.200831</v>
+        <v>17.656567299999999</v>
       </c>
       <c r="K6">
-        <v>124.236306</v>
+        <v>121.7466281</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="J7">
-        <v>9.7843730000000004</v>
+        <v>15.034908400000001</v>
       </c>
       <c r="K7">
-        <v>125.490032</v>
+        <v>120.6851216</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -1153,197 +1153,197 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="J8">
-        <v>17.656567299999999</v>
+        <v>13.7664998</v>
       </c>
       <c r="K8">
-        <v>121.7466281</v>
+        <v>121.0662701</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="J9">
-        <v>7.0983726999999996</v>
+        <v>9.7478136000000006</v>
       </c>
       <c r="K9">
-        <v>125.6198369</v>
+        <v>118.744445</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="J10">
-        <v>11.251031100000001</v>
+        <v>6.907362</v>
       </c>
       <c r="K10">
-        <v>125.0045705</v>
+        <v>122.08116200000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="J11">
-        <v>14.698640299999999</v>
+        <v>8.6047177999999995</v>
       </c>
       <c r="K11">
-        <v>121.0672331</v>
+        <v>123.3485271</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="J12">
-        <v>9.6443597000000008</v>
+        <v>14.409894</v>
       </c>
       <c r="K12">
-        <v>123.8570588</v>
+        <v>121.03704</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J13">
-        <v>15.034908400000001</v>
+        <v>14.698640299999999</v>
       </c>
       <c r="K13">
-        <v>120.6851216</v>
+        <v>121.0672331</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1351,10 +1351,10 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
         <v>117</v>
-      </c>
-      <c r="C14" t="s">
-        <v>118</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -1372,7 +1372,7 @@
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14">
         <v>14.647515</v>
@@ -1383,83 +1383,83 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J15">
-        <v>18.060925099999999</v>
+        <v>14.646932</v>
       </c>
       <c r="K15">
-        <v>120.55957669999999</v>
+        <v>121.04806000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J16">
-        <v>10.6722219</v>
+        <v>14.577721500000001</v>
       </c>
       <c r="K16">
-        <v>122.95106680000001</v>
+        <v>120.9856154</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -1477,94 +1477,94 @@
         <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="J17">
-        <v>14.646932</v>
+        <v>14.564242200000001</v>
       </c>
       <c r="K17">
-        <v>121.04806000000001</v>
+        <v>121.0659489</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="J18">
-        <v>8.4856339999999992</v>
+        <v>14.409894</v>
       </c>
       <c r="K18">
-        <v>124.649457</v>
+        <v>121.03704</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J19">
-        <v>9.7478136000000006</v>
+        <v>14.614133000000001</v>
       </c>
       <c r="K19">
-        <v>118.744445</v>
+        <v>120.98102900000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -1582,24 +1582,24 @@
         <v>61</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J20">
-        <v>14.577721500000001</v>
+        <v>14.611470799999999</v>
       </c>
       <c r="K20">
-        <v>120.9856154</v>
+        <v>120.9901607</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1608,57 +1608,57 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="J21">
-        <v>15.954565000000001</v>
+        <v>13.1470067</v>
       </c>
       <c r="K21">
-        <v>120.349784</v>
+        <v>123.72470439999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="J22">
-        <v>14.564242200000001</v>
+        <v>10.6722219</v>
       </c>
       <c r="K22">
-        <v>121.0659489</v>
+        <v>122.95106680000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1666,10 +1666,10 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
         <v>153</v>
-      </c>
-      <c r="C23" t="s">
-        <v>154</v>
       </c>
       <c r="D23" t="s">
         <v>59</v>
@@ -1681,13 +1681,13 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
         <v>155</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>156</v>
-      </c>
-      <c r="I23" t="s">
-        <v>157</v>
       </c>
       <c r="J23">
         <v>11.7051918</v>
@@ -1698,153 +1698,153 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="J24">
-        <v>14.409894</v>
+        <v>9.6443597000000008</v>
       </c>
       <c r="K24">
-        <v>121.03704</v>
+        <v>123.8570588</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="J25">
-        <v>14.614133000000001</v>
+        <v>10.308017100000001</v>
       </c>
       <c r="K25">
-        <v>120.98102900000001</v>
+        <v>123.8915719</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="J26">
-        <v>14.611470799999999</v>
+        <v>11.251031100000001</v>
       </c>
       <c r="K26">
-        <v>120.9901607</v>
+        <v>125.0045705</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="J27">
-        <v>10.308017100000001</v>
+        <v>8.4856339999999992</v>
       </c>
       <c r="K27">
-        <v>123.8915719</v>
+        <v>124.649457</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
@@ -1853,33 +1853,33 @@
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="J28">
-        <v>6.907362</v>
+        <v>7.0983726999999996</v>
       </c>
       <c r="K28">
-        <v>122.08116200000001</v>
+        <v>125.6198369</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
@@ -1888,22 +1888,22 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="J29">
-        <v>8.6047177999999995</v>
+        <v>9.7843730000000004</v>
       </c>
       <c r="K29">
-        <v>123.3485271</v>
+        <v>125.490032</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2027,6 +2027,9 @@
       <c r="C53" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:K29">
+    <sortCondition ref="F2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>